--- a/도플러 효과 연습용.xlsx
+++ b/도플러 효과 연습용.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E5CAA8-188C-422A-A43D-5A19D4354218}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B576801E-02C5-408A-8E64-DDB88DB66A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{F460C72D-2847-4E0E-B7BB-6145BFE1CA2F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F460C72D-2847-4E0E-B7BB-6145BFE1CA2F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -202,13 +202,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -284,115 +278,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>59.088465180732484</c:v>
+                  <c:v>98.480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.381557247154504</c:v>
+                  <c:v>93.969262078590845</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>51.96152422706632</c:v>
+                  <c:v>86.602540378443877</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45.962666587138678</c:v>
+                  <c:v>76.604444311897808</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.56725658119236</c:v>
+                  <c:v>64.278760968653941</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>30.000000000000007</c:v>
+                  <c:v>50.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20.521208599540131</c:v>
+                  <c:v>34.202014332566883</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.418890660015824</c:v>
+                  <c:v>17.36481776669304</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.67544536472586E-15</c:v>
+                  <c:v>6.1257422745431001E-15</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-10.418890660015819</c:v>
+                  <c:v>-17.364817766693029</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-20.521208599540124</c:v>
+                  <c:v>-34.202014332566868</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-29.999999999999986</c:v>
+                  <c:v>-49.999999999999979</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-38.56725658119236</c:v>
+                  <c:v>-64.278760968653941</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-45.962666587138671</c:v>
+                  <c:v>-76.604444311897794</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-51.96152422706632</c:v>
+                  <c:v>-86.602540378443877</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-56.381557247154497</c:v>
+                  <c:v>-93.96926207859083</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-59.088465180732484</c:v>
+                  <c:v>-98.480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-60</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-59.088465180732484</c:v>
+                  <c:v>-98.480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-56.381557247154504</c:v>
+                  <c:v>-93.969262078590845</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-51.961524227066313</c:v>
+                  <c:v>-86.602540378443862</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-45.962666587138678</c:v>
+                  <c:v>-76.604444311897808</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-38.567256581192368</c:v>
+                  <c:v>-64.278760968653941</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-30.000000000000028</c:v>
+                  <c:v>-50.000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-20.521208599540163</c:v>
+                  <c:v>-34.202014332566939</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-10.418890660015819</c:v>
+                  <c:v>-17.364817766693033</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.102633609417758E-14</c:v>
+                  <c:v>-1.83772268236293E-14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10.418890660015798</c:v>
+                  <c:v>17.364817766692997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>20.521208599540088</c:v>
+                  <c:v>34.202014332566819</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30.000000000000007</c:v>
+                  <c:v>50.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.567256581192353</c:v>
+                  <c:v>64.278760968653927</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>45.962666587138671</c:v>
+                  <c:v>76.60444431189778</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>51.961524227066306</c:v>
+                  <c:v>86.602540378443834</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>56.381557247154504</c:v>
+                  <c:v>93.969262078590845</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>59.088465180732477</c:v>
+                  <c:v>98.480775301220788</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -407,112 +401,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>10.418890660015819</c:v>
+                  <c:v>17.364817766693033</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20.521208599540124</c:v>
+                  <c:v>34.202014332566868</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>29.999999999999996</c:v>
+                  <c:v>49.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.567256581192353</c:v>
+                  <c:v>64.278760968653927</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45.962666587138678</c:v>
+                  <c:v>76.604444311897808</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>51.961524227066313</c:v>
+                  <c:v>86.602540378443862</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56.381557247154497</c:v>
+                  <c:v>93.96926207859083</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.088465180732484</c:v>
+                  <c:v>98.480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>60</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59.088465180732484</c:v>
+                  <c:v>98.480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>56.381557247154504</c:v>
+                  <c:v>93.969262078590845</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>51.96152422706632</c:v>
+                  <c:v>86.602540378443877</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.962666587138678</c:v>
+                  <c:v>76.604444311897808</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>38.567256581192368</c:v>
+                  <c:v>64.278760968653941</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29.999999999999996</c:v>
+                  <c:v>49.999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20.521208599540131</c:v>
+                  <c:v>34.20201433256689</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.418890660015817</c:v>
+                  <c:v>17.364817766693026</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3508907294517201E-15</c:v>
+                  <c:v>1.22514845490862E-14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-10.418890660015828</c:v>
+                  <c:v>-17.364817766693047</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-20.52120859954012</c:v>
+                  <c:v>-34.202014332566868</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-30.000000000000007</c:v>
+                  <c:v>-50.000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-38.567256581192353</c:v>
+                  <c:v>-64.278760968653927</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-45.962666587138671</c:v>
+                  <c:v>-76.604444311897794</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-51.961524227066306</c:v>
+                  <c:v>-86.602540378443834</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-56.38155724715449</c:v>
+                  <c:v>-93.969262078590816</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-59.088465180732484</c:v>
+                  <c:v>-98.480775301220802</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-60</c:v>
+                  <c:v>-100</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-59.088465180732484</c:v>
+                  <c:v>-98.480775301220817</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-56.381557247154511</c:v>
+                  <c:v>-93.969262078590859</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-51.961524227066313</c:v>
+                  <c:v>-86.602540378443862</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-45.962666587138685</c:v>
+                  <c:v>-76.604444311897808</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-38.567256581192375</c:v>
+                  <c:v>-64.278760968653955</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-30.000000000000028</c:v>
+                  <c:v>-50.000000000000043</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-20.521208599540117</c:v>
+                  <c:v>-34.202014332566861</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-10.418890660015876</c:v>
+                  <c:v>-17.364817766693129</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.470178145890344E-14</c:v>
+                  <c:v>-2.45029690981724E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -546,115 +540,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>590.88465180732476</c:v>
+                  <c:v>295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>563.81557247154501</c:v>
+                  <c:v>281.90778623577251</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>519.6152422706632</c:v>
+                  <c:v>259.8076211353316</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>459.62666587138682</c:v>
+                  <c:v>229.81333293569341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>385.67256581192362</c:v>
+                  <c:v>192.83628290596181</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>300.00000000000006</c:v>
+                  <c:v>150.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>205.21208599540128</c:v>
+                  <c:v>102.60604299770064</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>104.18890660015825</c:v>
+                  <c:v>52.094453300079124</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.67544536472586E-14</c:v>
+                  <c:v>1.83772268236293E-14</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-104.18890660015818</c:v>
+                  <c:v>-52.094453300079088</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-205.21208599540122</c:v>
+                  <c:v>-102.60604299770061</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-299.99999999999989</c:v>
+                  <c:v>-149.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-385.67256581192362</c:v>
+                  <c:v>-192.83628290596181</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-459.62666587138676</c:v>
+                  <c:v>-229.81333293569338</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-519.6152422706632</c:v>
+                  <c:v>-259.8076211353316</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-563.81557247154501</c:v>
+                  <c:v>-281.90778623577251</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-590.88465180732476</c:v>
+                  <c:v>-295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-600</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-590.88465180732476</c:v>
+                  <c:v>-295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-563.81557247154501</c:v>
+                  <c:v>-281.90778623577251</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-519.6152422706632</c:v>
+                  <c:v>-259.8076211353316</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-459.62666587138682</c:v>
+                  <c:v>-229.81333293569341</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-385.67256581192368</c:v>
+                  <c:v>-192.83628290596184</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-300.00000000000028</c:v>
+                  <c:v>-150.00000000000014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-205.21208599540162</c:v>
+                  <c:v>-102.60604299770081</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-104.18890660015821</c:v>
+                  <c:v>-52.094453300079103</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-1.102633609417758E-13</c:v>
+                  <c:v>-5.51316804708879E-14</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>104.18890660015798</c:v>
+                  <c:v>52.094453300078989</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>205.21208599540088</c:v>
+                  <c:v>102.60604299770044</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>300.00000000000006</c:v>
+                  <c:v>150.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>385.67256581192356</c:v>
+                  <c:v>192.83628290596178</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>459.62666587138665</c:v>
+                  <c:v>229.81333293569332</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>519.61524227066297</c:v>
+                  <c:v>259.80762113533149</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>563.81557247154501</c:v>
+                  <c:v>281.90778623577251</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>590.88465180732476</c:v>
+                  <c:v>295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>600</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -669,112 +663,112 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>104.18890660015821</c:v>
+                  <c:v>52.094453300079103</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>205.21208599540122</c:v>
+                  <c:v>102.60604299770061</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>299.99999999999994</c:v>
+                  <c:v>149.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>385.67256581192356</c:v>
+                  <c:v>192.83628290596178</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>459.62666587138682</c:v>
+                  <c:v>229.81333293569341</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>519.6152422706632</c:v>
+                  <c:v>259.8076211353316</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>563.81557247154501</c:v>
+                  <c:v>281.90778623577251</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>590.88465180732476</c:v>
+                  <c:v>295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>600</c:v>
+                  <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>590.88465180732476</c:v>
+                  <c:v>295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>563.81557247154501</c:v>
+                  <c:v>281.90778623577251</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>519.6152422706632</c:v>
+                  <c:v>259.8076211353316</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>459.62666587138682</c:v>
+                  <c:v>229.81333293569341</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>385.67256581192368</c:v>
+                  <c:v>192.83628290596184</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>299.99999999999994</c:v>
+                  <c:v>149.99999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>205.21208599540134</c:v>
+                  <c:v>102.60604299770067</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>104.18890660015816</c:v>
+                  <c:v>52.094453300079081</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>7.3508907294517201E-14</c:v>
+                  <c:v>3.67544536472586E-14</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-104.18890660015828</c:v>
+                  <c:v>-52.094453300079138</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-205.2120859954012</c:v>
+                  <c:v>-102.6060429977006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-300.00000000000006</c:v>
+                  <c:v>-150.00000000000003</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-385.67256581192356</c:v>
+                  <c:v>-192.83628290596178</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-459.62666587138676</c:v>
+                  <c:v>-229.81333293569338</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-519.61524227066297</c:v>
+                  <c:v>-259.80762113533149</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-563.8155724715449</c:v>
+                  <c:v>-281.90778623577245</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-590.88465180732476</c:v>
+                  <c:v>-295.44232590366238</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-600</c:v>
+                  <c:v>-300</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-590.88465180732487</c:v>
+                  <c:v>-295.44232590366244</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-563.81557247154512</c:v>
+                  <c:v>-281.90778623577256</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-519.6152422706632</c:v>
+                  <c:v>-259.8076211353316</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-459.62666587138688</c:v>
+                  <c:v>-229.81333293569344</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-385.67256581192373</c:v>
+                  <c:v>-192.83628290596187</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-300.00000000000028</c:v>
+                  <c:v>-150.00000000000014</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-205.21208599540117</c:v>
+                  <c:v>-102.60604299770058</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-104.18890660015876</c:v>
+                  <c:v>-52.09445330007938</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-1.470178145890344E-13</c:v>
+                  <c:v>-7.3508907294517201E-14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -844,7 +838,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>-60</c:v>
+                  <c:v>-92.977648588825119</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -856,7 +850,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7.3508907294517201E-15</c:v>
+                  <c:v>-36.812455268467872</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -902,7 +896,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>600</c:v>
+                  <c:v>278.93294576647548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -914,7 +908,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>110.43736580540315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1003,8 +997,7 @@
         <c:axId val="1599760320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1000"/>
-          <c:min val="-1000"/>
+          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1258,37 +1251,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2.3093504312986837E-16</c:v>
+                  <c:v>3.8489173854978065E-16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.1649666232352796</c:v>
+                  <c:v>-1.9416110387254659</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-2.2158981965885474</c:v>
+                  <c:v>-3.6931636609809129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.049922215389155</c:v>
+                  <c:v>-5.0832036923152595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.5853985976898666</c:v>
+                  <c:v>-5.9756643294831111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-3.7699111843077513</c:v>
+                  <c:v>-6.2831853071795862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.585398597689867</c:v>
+                  <c:v>-5.975664329483112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.0499222153891559</c:v>
+                  <c:v>-5.0832036923152604</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-2.2158981965885483</c:v>
+                  <c:v>-3.6931636609809142</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.1649666232352802</c:v>
+                  <c:v>-1.9416110387254675</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-6.9280512938960507E-16</c:v>
+                  <c:v>-1.1546752156493419E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1364,37 +1357,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-6.9280512938960507E-16</c:v>
+                  <c:v>-1.1546752156493419E-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.1649666232352791</c:v>
+                  <c:v>1.9416110387254653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2158981965885469</c:v>
+                  <c:v>3.693163660980912</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.049922215389155</c:v>
+                  <c:v>5.0832036923152595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.5853985976898666</c:v>
+                  <c:v>5.9756643294831111</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.7699111843077513</c:v>
+                  <c:v>6.2831853071795862</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.585398597689867</c:v>
+                  <c:v>5.975664329483112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.0499222153891536</c:v>
+                  <c:v>5.0832036923152568</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.215898196588546</c:v>
+                  <c:v>3.6931636609809106</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1649666232352776</c:v>
+                  <c:v>1.9416110387254628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-2.1936785424389442E-15</c:v>
+                  <c:v>-3.6561309040649075E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1442,7 +1435,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1454,7 +1447,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2.3093504312986837E-16</c:v>
+                  <c:v>-2.3129947806404312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2809,16 +2802,16 @@
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>1691640</xdr:colOff>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
           <xdr:row>5</xdr:row>
-          <xdr:rowOff>1905</xdr:rowOff>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>5</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>207645</xdr:rowOff>
+          <xdr:colOff>7620</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3295,7 +3288,7 @@
   <dimension ref="C3:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3305,23 +3298,23 @@
     <col min="12" max="13" width="14.09765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D3" t="s">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D4" t="s">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="3:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D5" t="s">
         <v>2</v>
       </c>
@@ -3329,69 +3322,61 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D7" t="s">
         <v>4</v>
       </c>
       <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" x14ac:dyDescent="0.4">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="9" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" x14ac:dyDescent="0.4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
         <f>$E$4*$E$9/$E$3</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11">
         <f>2*PI()*$E$9/$E$5</f>
-        <v>37.699111843077517</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" x14ac:dyDescent="0.4">
+        <v>18.849555921538759</v>
+      </c>
+    </row>
+    <row r="12" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D12" t="s">
         <v>8</v>
       </c>
       <c r="E12">
         <f>2*PI()*$E$10/$E$5</f>
-        <v>3.7699111843077513</v>
-      </c>
-    </row>
-    <row r="13" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="3:13" x14ac:dyDescent="0.4">
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.4">
+        <v>6.2831853071795862</v>
+      </c>
+    </row>
+    <row r="14" spans="4:13" x14ac:dyDescent="0.4">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D15" s="2" t="s">
         <v>9</v>
       </c>
@@ -3411,30 +3396,30 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="4:13" x14ac:dyDescent="0.4">
       <c r="D16" s="3">
         <f>$E$10*COS(2*PI()*($E$7)/$E$5+PI())</f>
-        <v>-60</v>
+        <v>-92.977648588825119</v>
       </c>
       <c r="E16" s="3">
         <f>$E$10*SIN(2*PI()*($E$7)/$E$5+PI())</f>
-        <v>7.3508907294517201E-15</v>
+        <v>-36.812455268467872</v>
       </c>
       <c r="H16" s="2">
         <f>$E$9*COS(2*PI()*($E$7)/$E$5)</f>
-        <v>600</v>
+        <v>278.93294576647548</v>
       </c>
       <c r="I16" s="2">
         <f>$E$9*SIN(2*PI()*($E$7)/$E$5)</f>
-        <v>0</v>
+        <v>110.43736580540315</v>
       </c>
       <c r="L16" s="1">
         <f>MOD($E$7,E5)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M16" s="1">
         <f>$E$12*COS(2*PI()/$E$5*$E$7+1/2*PI())</f>
-        <v>2.3093504312986837E-16</v>
+        <v>-2.3129947806404312</v>
       </c>
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.4">
@@ -3469,7 +3454,7 @@
       </c>
       <c r="D19" s="1">
         <f>$E$10*COS(C19*PI()/180)</f>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E19" s="1">
         <f>$E$10*SIN(C19*PI()/180)</f>
@@ -3477,7 +3462,7 @@
       </c>
       <c r="H19" s="1">
         <f>$E$9*COS(C19*PI()/180)</f>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I19" s="1">
         <f>$E$9*SIN(C19*PI()/180)</f>
@@ -3491,7 +3476,7 @@
       </c>
       <c r="M19" s="1">
         <f>$E$12*COS(2*PI()/$E$5*$L19+1/2*PI())</f>
-        <v>2.3093504312986837E-16</v>
+        <v>3.8489173854978065E-16</v>
       </c>
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.4">
@@ -3500,19 +3485,19 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:D55" si="0">$E$10*COS(C20*PI()/180)</f>
-        <v>59.088465180732484</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ref="E20:E55" si="1">$E$10*SIN(C20*PI()/180)</f>
-        <v>10.418890660015819</v>
+        <v>17.364817766693033</v>
       </c>
       <c r="H20" s="1">
         <f t="shared" ref="H20:H55" si="2">$E$9*COS(C20*PI()/180)</f>
-        <v>590.88465180732476</v>
+        <v>295.44232590366238</v>
       </c>
       <c r="I20" s="1">
         <f t="shared" ref="I20:I55" si="3">$E$9*SIN(C20*PI()/180)</f>
-        <v>104.18890660015821</v>
+        <v>52.094453300079103</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -3522,7 +3507,7 @@
       </c>
       <c r="M20" s="1">
         <f t="shared" ref="M20:M39" si="4">$E$12*COS(2*PI()/$E$5*$L20+1/2*PI())</f>
-        <v>-1.1649666232352796</v>
+        <v>-1.9416110387254659</v>
       </c>
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.4">
@@ -3531,19 +3516,19 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>56.381557247154504</v>
+        <v>93.969262078590845</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="1"/>
-        <v>20.521208599540124</v>
+        <v>34.202014332566868</v>
       </c>
       <c r="H21" s="1">
         <f t="shared" si="2"/>
-        <v>563.81557247154501</v>
+        <v>281.90778623577251</v>
       </c>
       <c r="I21" s="1">
         <f t="shared" si="3"/>
-        <v>205.21208599540122</v>
+        <v>102.60604299770061</v>
       </c>
       <c r="K21">
         <v>2</v>
@@ -3553,7 +3538,7 @@
       </c>
       <c r="M21" s="1">
         <f t="shared" si="4"/>
-        <v>-2.2158981965885474</v>
+        <v>-3.6931636609809129</v>
       </c>
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.4">
@@ -3562,19 +3547,19 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>51.96152422706632</v>
+        <v>86.602540378443877</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="1"/>
-        <v>29.999999999999996</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="H22" s="1">
         <f t="shared" si="2"/>
-        <v>519.6152422706632</v>
+        <v>259.8076211353316</v>
       </c>
       <c r="I22" s="1">
         <f t="shared" si="3"/>
-        <v>299.99999999999994</v>
+        <v>149.99999999999997</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -3584,7 +3569,7 @@
       </c>
       <c r="M22" s="1">
         <f t="shared" si="4"/>
-        <v>-3.049922215389155</v>
+        <v>-5.0832036923152595</v>
       </c>
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.4">
@@ -3593,19 +3578,19 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="0"/>
-        <v>45.962666587138678</v>
+        <v>76.604444311897808</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="1"/>
-        <v>38.567256581192353</v>
+        <v>64.278760968653927</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" si="2"/>
-        <v>459.62666587138682</v>
+        <v>229.81333293569341</v>
       </c>
       <c r="I23" s="1">
         <f t="shared" si="3"/>
-        <v>385.67256581192356</v>
+        <v>192.83628290596178</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -3615,7 +3600,7 @@
       </c>
       <c r="M23" s="1">
         <f t="shared" si="4"/>
-        <v>-3.5853985976898666</v>
+        <v>-5.9756643294831111</v>
       </c>
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.4">
@@ -3624,19 +3609,19 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="0"/>
-        <v>38.56725658119236</v>
+        <v>64.278760968653941</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="1"/>
-        <v>45.962666587138678</v>
+        <v>76.604444311897808</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="2"/>
-        <v>385.67256581192362</v>
+        <v>192.83628290596181</v>
       </c>
       <c r="I24" s="1">
         <f t="shared" si="3"/>
-        <v>459.62666587138682</v>
+        <v>229.81333293569341</v>
       </c>
       <c r="K24">
         <v>5</v>
@@ -3646,7 +3631,7 @@
       </c>
       <c r="M24" s="1">
         <f t="shared" si="4"/>
-        <v>-3.7699111843077513</v>
+        <v>-6.2831853071795862</v>
       </c>
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.4">
@@ -3655,19 +3640,19 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="0"/>
-        <v>30.000000000000007</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="1"/>
-        <v>51.961524227066313</v>
+        <v>86.602540378443862</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="2"/>
-        <v>300.00000000000006</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="I25" s="1">
         <f t="shared" si="3"/>
-        <v>519.6152422706632</v>
+        <v>259.8076211353316</v>
       </c>
       <c r="K25">
         <v>6</v>
@@ -3677,7 +3662,7 @@
       </c>
       <c r="M25" s="1">
         <f t="shared" si="4"/>
-        <v>-3.585398597689867</v>
+        <v>-5.975664329483112</v>
       </c>
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.4">
@@ -3686,19 +3671,19 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="0"/>
-        <v>20.521208599540131</v>
+        <v>34.202014332566883</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="1"/>
-        <v>56.381557247154497</v>
+        <v>93.96926207859083</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="2"/>
-        <v>205.21208599540128</v>
+        <v>102.60604299770064</v>
       </c>
       <c r="I26" s="1">
         <f t="shared" si="3"/>
-        <v>563.81557247154501</v>
+        <v>281.90778623577251</v>
       </c>
       <c r="K26">
         <v>7</v>
@@ -3708,7 +3693,7 @@
       </c>
       <c r="M26" s="1">
         <f t="shared" si="4"/>
-        <v>-3.0499222153891559</v>
+        <v>-5.0832036923152604</v>
       </c>
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.4">
@@ -3717,19 +3702,19 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="0"/>
-        <v>10.418890660015824</v>
+        <v>17.36481776669304</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="1"/>
-        <v>59.088465180732484</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="2"/>
-        <v>104.18890660015825</v>
+        <v>52.094453300079124</v>
       </c>
       <c r="I27" s="1">
         <f t="shared" si="3"/>
-        <v>590.88465180732476</v>
+        <v>295.44232590366238</v>
       </c>
       <c r="K27">
         <v>8</v>
@@ -3739,7 +3724,7 @@
       </c>
       <c r="M27" s="1">
         <f t="shared" si="4"/>
-        <v>-2.2158981965885483</v>
+        <v>-3.6931636609809142</v>
       </c>
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.4">
@@ -3748,19 +3733,19 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="0"/>
-        <v>3.67544536472586E-15</v>
+        <v>6.1257422745431001E-15</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="1"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="2"/>
-        <v>3.67544536472586E-14</v>
+        <v>1.83772268236293E-14</v>
       </c>
       <c r="I28" s="1">
         <f t="shared" si="3"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="K28">
         <v>9</v>
@@ -3770,7 +3755,7 @@
       </c>
       <c r="M28" s="1">
         <f t="shared" si="4"/>
-        <v>-1.1649666232352802</v>
+        <v>-1.9416110387254675</v>
       </c>
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.4">
@@ -3779,19 +3764,19 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="0"/>
-        <v>-10.418890660015819</v>
+        <v>-17.364817766693029</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="1"/>
-        <v>59.088465180732484</v>
+        <v>98.480775301220802</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="2"/>
-        <v>-104.18890660015818</v>
+        <v>-52.094453300079088</v>
       </c>
       <c r="I29" s="1">
         <f t="shared" si="3"/>
-        <v>590.88465180732476</v>
+        <v>295.44232590366238</v>
       </c>
       <c r="K29">
         <v>10</v>
@@ -3801,7 +3786,7 @@
       </c>
       <c r="M29" s="1">
         <f t="shared" si="4"/>
-        <v>-6.9280512938960507E-16</v>
+        <v>-1.1546752156493419E-15</v>
       </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.4">
@@ -3810,19 +3795,19 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="0"/>
-        <v>-20.521208599540124</v>
+        <v>-34.202014332566868</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="1"/>
-        <v>56.381557247154504</v>
+        <v>93.969262078590845</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="2"/>
-        <v>-205.21208599540122</v>
+        <v>-102.60604299770061</v>
       </c>
       <c r="I30" s="1">
         <f t="shared" si="3"/>
-        <v>563.81557247154501</v>
+        <v>281.90778623577251</v>
       </c>
       <c r="K30">
         <v>11</v>
@@ -3832,7 +3817,7 @@
       </c>
       <c r="M30" s="1">
         <f t="shared" si="4"/>
-        <v>1.1649666232352791</v>
+        <v>1.9416110387254653</v>
       </c>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.4">
@@ -3841,19 +3826,19 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="0"/>
-        <v>-29.999999999999986</v>
+        <v>-49.999999999999979</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="1"/>
-        <v>51.96152422706632</v>
+        <v>86.602540378443877</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="2"/>
-        <v>-299.99999999999989</v>
+        <v>-149.99999999999994</v>
       </c>
       <c r="I31" s="1">
         <f t="shared" si="3"/>
-        <v>519.6152422706632</v>
+        <v>259.8076211353316</v>
       </c>
       <c r="K31">
         <v>12</v>
@@ -3863,7 +3848,7 @@
       </c>
       <c r="M31" s="1">
         <f t="shared" si="4"/>
-        <v>2.2158981965885469</v>
+        <v>3.693163660980912</v>
       </c>
     </row>
     <row r="32" spans="3:13" x14ac:dyDescent="0.4">
@@ -3872,19 +3857,19 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="0"/>
-        <v>-38.56725658119236</v>
+        <v>-64.278760968653941</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="1"/>
-        <v>45.962666587138678</v>
+        <v>76.604444311897808</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="2"/>
-        <v>-385.67256581192362</v>
+        <v>-192.83628290596181</v>
       </c>
       <c r="I32" s="1">
         <f t="shared" si="3"/>
-        <v>459.62666587138682</v>
+        <v>229.81333293569341</v>
       </c>
       <c r="K32">
         <v>13</v>
@@ -3894,7 +3879,7 @@
       </c>
       <c r="M32" s="1">
         <f t="shared" si="4"/>
-        <v>3.049922215389155</v>
+        <v>5.0832036923152595</v>
       </c>
     </row>
     <row r="33" spans="3:13" x14ac:dyDescent="0.4">
@@ -3903,19 +3888,19 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="0"/>
-        <v>-45.962666587138671</v>
+        <v>-76.604444311897794</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="1"/>
-        <v>38.567256581192368</v>
+        <v>64.278760968653941</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="2"/>
-        <v>-459.62666587138676</v>
+        <v>-229.81333293569338</v>
       </c>
       <c r="I33" s="1">
         <f t="shared" si="3"/>
-        <v>385.67256581192368</v>
+        <v>192.83628290596184</v>
       </c>
       <c r="K33">
         <v>14</v>
@@ -3925,7 +3910,7 @@
       </c>
       <c r="M33" s="1">
         <f t="shared" si="4"/>
-        <v>3.5853985976898666</v>
+        <v>5.9756643294831111</v>
       </c>
     </row>
     <row r="34" spans="3:13" x14ac:dyDescent="0.4">
@@ -3934,19 +3919,19 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="0"/>
-        <v>-51.96152422706632</v>
+        <v>-86.602540378443877</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="1"/>
-        <v>29.999999999999996</v>
+        <v>49.999999999999993</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="2"/>
-        <v>-519.6152422706632</v>
+        <v>-259.8076211353316</v>
       </c>
       <c r="I34" s="1">
         <f t="shared" si="3"/>
-        <v>299.99999999999994</v>
+        <v>149.99999999999997</v>
       </c>
       <c r="K34">
         <v>15</v>
@@ -3956,7 +3941,7 @@
       </c>
       <c r="M34" s="1">
         <f t="shared" si="4"/>
-        <v>3.7699111843077513</v>
+        <v>6.2831853071795862</v>
       </c>
     </row>
     <row r="35" spans="3:13" x14ac:dyDescent="0.4">
@@ -3965,19 +3950,19 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>-56.381557247154497</v>
+        <v>-93.96926207859083</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>20.521208599540131</v>
+        <v>34.20201433256689</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="2"/>
-        <v>-563.81557247154501</v>
+        <v>-281.90778623577251</v>
       </c>
       <c r="I35" s="1">
         <f t="shared" si="3"/>
-        <v>205.21208599540134</v>
+        <v>102.60604299770067</v>
       </c>
       <c r="K35">
         <v>16</v>
@@ -3987,7 +3972,7 @@
       </c>
       <c r="M35" s="1">
         <f t="shared" si="4"/>
-        <v>3.585398597689867</v>
+        <v>5.975664329483112</v>
       </c>
     </row>
     <row r="36" spans="3:13" x14ac:dyDescent="0.4">
@@ -3996,19 +3981,19 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>-59.088465180732484</v>
+        <v>-98.480775301220802</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>10.418890660015817</v>
+        <v>17.364817766693026</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="2"/>
-        <v>-590.88465180732476</v>
+        <v>-295.44232590366238</v>
       </c>
       <c r="I36" s="1">
         <f t="shared" si="3"/>
-        <v>104.18890660015816</v>
+        <v>52.094453300079081</v>
       </c>
       <c r="K36">
         <v>17</v>
@@ -4018,7 +4003,7 @@
       </c>
       <c r="M36" s="1">
         <f t="shared" si="4"/>
-        <v>3.0499222153891536</v>
+        <v>5.0832036923152568</v>
       </c>
     </row>
     <row r="37" spans="3:13" x14ac:dyDescent="0.4">
@@ -4027,19 +4012,19 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>7.3508907294517201E-15</v>
+        <v>1.22514845490862E-14</v>
       </c>
       <c r="H37" s="1">
         <f t="shared" si="2"/>
-        <v>-600</v>
+        <v>-300</v>
       </c>
       <c r="I37" s="1">
         <f t="shared" si="3"/>
-        <v>7.3508907294517201E-14</v>
+        <v>3.67544536472586E-14</v>
       </c>
       <c r="K37">
         <v>18</v>
@@ -4049,7 +4034,7 @@
       </c>
       <c r="M37" s="1">
         <f t="shared" si="4"/>
-        <v>2.215898196588546</v>
+        <v>3.6931636609809106</v>
       </c>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.4">
@@ -4058,19 +4043,19 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>-59.088465180732484</v>
+        <v>-98.480775301220802</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>-10.418890660015828</v>
+        <v>-17.364817766693047</v>
       </c>
       <c r="H38" s="1">
         <f t="shared" si="2"/>
-        <v>-590.88465180732476</v>
+        <v>-295.44232590366238</v>
       </c>
       <c r="I38" s="1">
         <f t="shared" si="3"/>
-        <v>-104.18890660015828</v>
+        <v>-52.094453300079138</v>
       </c>
       <c r="K38">
         <v>19</v>
@@ -4080,7 +4065,7 @@
       </c>
       <c r="M38" s="1">
         <f t="shared" si="4"/>
-        <v>1.1649666232352776</v>
+        <v>1.9416110387254628</v>
       </c>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.4">
@@ -4089,19 +4074,19 @@
       </c>
       <c r="D39" s="1">
         <f t="shared" si="0"/>
-        <v>-56.381557247154504</v>
+        <v>-93.969262078590845</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" si="1"/>
-        <v>-20.52120859954012</v>
+        <v>-34.202014332566868</v>
       </c>
       <c r="H39" s="1">
         <f t="shared" si="2"/>
-        <v>-563.81557247154501</v>
+        <v>-281.90778623577251</v>
       </c>
       <c r="I39" s="1">
         <f t="shared" si="3"/>
-        <v>-205.2120859954012</v>
+        <v>-102.6060429977006</v>
       </c>
       <c r="K39">
         <v>20</v>
@@ -4111,7 +4096,7 @@
       </c>
       <c r="M39" s="1">
         <f t="shared" si="4"/>
-        <v>-2.1936785424389442E-15</v>
+        <v>-3.6561309040649075E-15</v>
       </c>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.4">
@@ -4120,19 +4105,19 @@
       </c>
       <c r="D40" s="1">
         <f t="shared" si="0"/>
-        <v>-51.961524227066313</v>
+        <v>-86.602540378443862</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" si="1"/>
-        <v>-30.000000000000007</v>
+        <v>-50.000000000000014</v>
       </c>
       <c r="H40" s="1">
         <f t="shared" si="2"/>
-        <v>-519.6152422706632</v>
+        <v>-259.8076211353316</v>
       </c>
       <c r="I40" s="1">
         <f t="shared" si="3"/>
-        <v>-300.00000000000006</v>
+        <v>-150.00000000000003</v>
       </c>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.4">
@@ -4141,19 +4126,19 @@
       </c>
       <c r="D41" s="1">
         <f t="shared" si="0"/>
-        <v>-45.962666587138678</v>
+        <v>-76.604444311897808</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" si="1"/>
-        <v>-38.567256581192353</v>
+        <v>-64.278760968653927</v>
       </c>
       <c r="H41" s="1">
         <f t="shared" si="2"/>
-        <v>-459.62666587138682</v>
+        <v>-229.81333293569341</v>
       </c>
       <c r="I41" s="1">
         <f t="shared" si="3"/>
-        <v>-385.67256581192356</v>
+        <v>-192.83628290596178</v>
       </c>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.4">
@@ -4162,19 +4147,19 @@
       </c>
       <c r="D42" s="1">
         <f t="shared" si="0"/>
-        <v>-38.567256581192368</v>
+        <v>-64.278760968653941</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" si="1"/>
-        <v>-45.962666587138671</v>
+        <v>-76.604444311897794</v>
       </c>
       <c r="H42" s="1">
         <f t="shared" si="2"/>
-        <v>-385.67256581192368</v>
+        <v>-192.83628290596184</v>
       </c>
       <c r="I42" s="1">
         <f t="shared" si="3"/>
-        <v>-459.62666587138676</v>
+        <v>-229.81333293569338</v>
       </c>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.4">
@@ -4183,19 +4168,19 @@
       </c>
       <c r="D43" s="1">
         <f t="shared" si="0"/>
-        <v>-30.000000000000028</v>
+        <v>-50.000000000000043</v>
       </c>
       <c r="E43" s="1">
         <f t="shared" si="1"/>
-        <v>-51.961524227066306</v>
+        <v>-86.602540378443834</v>
       </c>
       <c r="H43" s="1">
         <f t="shared" si="2"/>
-        <v>-300.00000000000028</v>
+        <v>-150.00000000000014</v>
       </c>
       <c r="I43" s="1">
         <f t="shared" si="3"/>
-        <v>-519.61524227066297</v>
+        <v>-259.80762113533149</v>
       </c>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.4">
@@ -4204,19 +4189,19 @@
       </c>
       <c r="D44" s="1">
         <f t="shared" si="0"/>
-        <v>-20.521208599540163</v>
+        <v>-34.202014332566939</v>
       </c>
       <c r="E44" s="1">
         <f t="shared" si="1"/>
-        <v>-56.38155724715449</v>
+        <v>-93.969262078590816</v>
       </c>
       <c r="H44" s="1">
         <f t="shared" si="2"/>
-        <v>-205.21208599540162</v>
+        <v>-102.60604299770081</v>
       </c>
       <c r="I44" s="1">
         <f t="shared" si="3"/>
-        <v>-563.8155724715449</v>
+        <v>-281.90778623577245</v>
       </c>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.4">
@@ -4225,19 +4210,19 @@
       </c>
       <c r="D45" s="1">
         <f t="shared" si="0"/>
-        <v>-10.418890660015819</v>
+        <v>-17.364817766693033</v>
       </c>
       <c r="E45" s="1">
         <f t="shared" si="1"/>
-        <v>-59.088465180732484</v>
+        <v>-98.480775301220802</v>
       </c>
       <c r="H45" s="1">
         <f t="shared" si="2"/>
-        <v>-104.18890660015821</v>
+        <v>-52.094453300079103</v>
       </c>
       <c r="I45" s="1">
         <f t="shared" si="3"/>
-        <v>-590.88465180732476</v>
+        <v>-295.44232590366238</v>
       </c>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.4">
@@ -4246,19 +4231,19 @@
       </c>
       <c r="D46" s="1">
         <f t="shared" si="0"/>
-        <v>-1.102633609417758E-14</v>
+        <v>-1.83772268236293E-14</v>
       </c>
       <c r="E46" s="1">
         <f t="shared" si="1"/>
-        <v>-60</v>
+        <v>-100</v>
       </c>
       <c r="H46" s="1">
         <f t="shared" si="2"/>
-        <v>-1.102633609417758E-13</v>
+        <v>-5.51316804708879E-14</v>
       </c>
       <c r="I46" s="1">
         <f t="shared" si="3"/>
-        <v>-600</v>
+        <v>-300</v>
       </c>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.4">
@@ -4267,19 +4252,19 @@
       </c>
       <c r="D47" s="1">
         <f t="shared" si="0"/>
-        <v>10.418890660015798</v>
+        <v>17.364817766692997</v>
       </c>
       <c r="E47" s="1">
         <f t="shared" si="1"/>
-        <v>-59.088465180732484</v>
+        <v>-98.480775301220817</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="2"/>
-        <v>104.18890660015798</v>
+        <v>52.094453300078989</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="3"/>
-        <v>-590.88465180732487</v>
+        <v>-295.44232590366244</v>
       </c>
     </row>
     <row r="48" spans="3:13" x14ac:dyDescent="0.4">
@@ -4288,19 +4273,19 @@
       </c>
       <c r="D48" s="1">
         <f t="shared" si="0"/>
-        <v>20.521208599540088</v>
+        <v>34.202014332566819</v>
       </c>
       <c r="E48" s="1">
         <f t="shared" si="1"/>
-        <v>-56.381557247154511</v>
+        <v>-93.969262078590859</v>
       </c>
       <c r="H48" s="1">
         <f t="shared" si="2"/>
-        <v>205.21208599540088</v>
+        <v>102.60604299770044</v>
       </c>
       <c r="I48" s="1">
         <f t="shared" si="3"/>
-        <v>-563.81557247154512</v>
+        <v>-281.90778623577256</v>
       </c>
     </row>
     <row r="49" spans="3:9" x14ac:dyDescent="0.4">
@@ -4309,19 +4294,19 @@
       </c>
       <c r="D49" s="1">
         <f t="shared" si="0"/>
-        <v>30.000000000000007</v>
+        <v>50.000000000000014</v>
       </c>
       <c r="E49" s="1">
         <f t="shared" si="1"/>
-        <v>-51.961524227066313</v>
+        <v>-86.602540378443862</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" si="2"/>
-        <v>300.00000000000006</v>
+        <v>150.00000000000003</v>
       </c>
       <c r="I49" s="1">
         <f t="shared" si="3"/>
-        <v>-519.6152422706632</v>
+        <v>-259.8076211353316</v>
       </c>
     </row>
     <row r="50" spans="3:9" x14ac:dyDescent="0.4">
@@ -4330,19 +4315,19 @@
       </c>
       <c r="D50" s="1">
         <f t="shared" si="0"/>
-        <v>38.567256581192353</v>
+        <v>64.278760968653927</v>
       </c>
       <c r="E50" s="1">
         <f t="shared" si="1"/>
-        <v>-45.962666587138685</v>
+        <v>-76.604444311897808</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
-        <v>385.67256581192356</v>
+        <v>192.83628290596178</v>
       </c>
       <c r="I50" s="1">
         <f t="shared" si="3"/>
-        <v>-459.62666587138688</v>
+        <v>-229.81333293569344</v>
       </c>
     </row>
     <row r="51" spans="3:9" x14ac:dyDescent="0.4">
@@ -4351,19 +4336,19 @@
       </c>
       <c r="D51" s="1">
         <f t="shared" si="0"/>
-        <v>45.962666587138671</v>
+        <v>76.60444431189778</v>
       </c>
       <c r="E51" s="1">
         <f t="shared" si="1"/>
-        <v>-38.567256581192375</v>
+        <v>-64.278760968653955</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
-        <v>459.62666587138665</v>
+        <v>229.81333293569332</v>
       </c>
       <c r="I51" s="1">
         <f t="shared" si="3"/>
-        <v>-385.67256581192373</v>
+        <v>-192.83628290596187</v>
       </c>
     </row>
     <row r="52" spans="3:9" x14ac:dyDescent="0.4">
@@ -4372,19 +4357,19 @@
       </c>
       <c r="D52" s="1">
         <f t="shared" si="0"/>
-        <v>51.961524227066306</v>
+        <v>86.602540378443834</v>
       </c>
       <c r="E52" s="1">
         <f t="shared" si="1"/>
-        <v>-30.000000000000028</v>
+        <v>-50.000000000000043</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
-        <v>519.61524227066297</v>
+        <v>259.80762113533149</v>
       </c>
       <c r="I52" s="1">
         <f t="shared" si="3"/>
-        <v>-300.00000000000028</v>
+        <v>-150.00000000000014</v>
       </c>
     </row>
     <row r="53" spans="3:9" x14ac:dyDescent="0.4">
@@ -4393,19 +4378,19 @@
       </c>
       <c r="D53" s="1">
         <f t="shared" si="0"/>
-        <v>56.381557247154504</v>
+        <v>93.969262078590845</v>
       </c>
       <c r="E53" s="1">
         <f t="shared" si="1"/>
-        <v>-20.521208599540117</v>
+        <v>-34.202014332566861</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
-        <v>563.81557247154501</v>
+        <v>281.90778623577251</v>
       </c>
       <c r="I53" s="1">
         <f t="shared" si="3"/>
-        <v>-205.21208599540117</v>
+        <v>-102.60604299770058</v>
       </c>
     </row>
     <row r="54" spans="3:9" x14ac:dyDescent="0.4">
@@ -4414,19 +4399,19 @@
       </c>
       <c r="D54" s="1">
         <f t="shared" si="0"/>
-        <v>59.088465180732477</v>
+        <v>98.480775301220788</v>
       </c>
       <c r="E54" s="1">
         <f t="shared" si="1"/>
-        <v>-10.418890660015876</v>
+        <v>-17.364817766693129</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
-        <v>590.88465180732476</v>
+        <v>295.44232590366238</v>
       </c>
       <c r="I54" s="1">
         <f t="shared" si="3"/>
-        <v>-104.18890660015876</v>
+        <v>-52.09445330007938</v>
       </c>
     </row>
     <row r="55" spans="3:9" x14ac:dyDescent="0.4">
@@ -4435,19 +4420,19 @@
       </c>
       <c r="D55" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E55" s="1">
         <f t="shared" si="1"/>
-        <v>-1.470178145890344E-14</v>
+        <v>-2.45029690981724E-14</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
-        <v>600</v>
+        <v>300</v>
       </c>
       <c r="I55" s="1">
         <f t="shared" si="3"/>
-        <v>-1.470178145890344E-13</v>
+        <v>-7.3508907294517201E-14</v>
       </c>
     </row>
   </sheetData>
